--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004891</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票A</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004892</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票C</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>004891</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>华润元大成长精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>004892</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>华润元大成长精选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,25 +976,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.63</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.68</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.99</v>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.88</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.63</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3534,14 +3599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.68</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3550,14 +3637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.99</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3566,13 +3675,3802 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4540</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8946</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7353,7 +7354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7364,17 +7365,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7384,14 +7405,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.75</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7400,14 +7443,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.88</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7416,14 +7481,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.63</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7432,14 +7519,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.68</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7448,14 +7557,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.99</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -7464,13 +7595,3183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0897</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>28.05</v>
+        <v>38.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>26.75</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>3.88</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>3.63</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -600,6 +617,4546 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6728</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3443</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9535</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6416</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>53.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3883,7 +8440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7764,7 +12321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8466,7 +13023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9282,7 +13839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9680,7 +14237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10306,7 +14863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600153-建发股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>38.85</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>28.05</v>
+        <v>38.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>26.75</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>3.88</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>3.63</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>1.68</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -616,7 +633,4591 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5965</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3777</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7759</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7582</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6581</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>017099</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>017177</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5156,7 +9757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8440,7 +13041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12321,7 +16922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13023,7 +17624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13839,7 +18440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14237,7 +18838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14861,478 +19462,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3039</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1337</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0693</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004892</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>